--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D776986D-5017-4A2B-A35E-0A1FB16BCD16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F128C687-A209-4C21-9AA6-A3B4404F288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F128C687-A209-4C21-9AA6-A3B4404F288C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC3C4F9-3FB3-4DC2-AA3B-13FB51F8FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="100">
   <si>
     <t>applied_on</t>
   </si>
@@ -230,9 +230,6 @@
     <t>junior</t>
   </si>
   <si>
-    <t>pleno</t>
-  </si>
-  <si>
     <t>hybrid</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
     <t>google_careers</t>
   </si>
   <si>
-    <t>ibm_careers</t>
-  </si>
-  <si>
     <t>dxc_careers</t>
   </si>
   <si>
@@ -321,6 +315,30 @@
   </si>
   <si>
     <t>solides_jobs</t>
+  </si>
+  <si>
+    <t>Ploomes</t>
+  </si>
+  <si>
+    <t>Compass.uol</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>BTG</t>
+  </si>
+  <si>
+    <t>btgpactual</t>
+  </si>
+  <si>
+    <t>Boston Consulting Group</t>
+  </si>
+  <si>
+    <t>ibm (brassring)</t>
+  </si>
+  <si>
+    <t>bcg (brassring)</t>
   </si>
 </sst>
 </file>
@@ -328,9 +346,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +357,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -367,24 +392,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -688,47 +717,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.28515625" style="2"/>
+    <col min="1" max="1" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -744,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>54</v>
@@ -759,82 +788,82 @@
         <v>44</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>45012</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="1">
         <v>65</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K3" s="5">
+        <v>45036</v>
+      </c>
+      <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>45012</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1">
+        <v>64</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>45030</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" ref="K4:K35" si="0">DATEDIF(A4,J4,"d")</f>
+      <c r="K4" s="8">
+        <f t="shared" ref="K4:K39" si="0">DATEDIF(A4,J4,"d")</f>
         <v>18</v>
       </c>
     </row>
@@ -842,34 +871,34 @@
       <c r="A5" s="4">
         <v>45012</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="F5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="1">
         <v>59</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>45027</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -878,34 +907,34 @@
       <c r="A6" s="4">
         <v>45013</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1">
         <v>29</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>45035</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -914,71 +943,71 @@
       <c r="A7" s="4">
         <v>45013</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1">
         <v>32</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>45036</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>45014</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="1">
         <v>50</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>45015</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -987,34 +1016,34 @@
       <c r="A9" s="4">
         <v>45014</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="1">
         <v>39</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>45022</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1023,34 +1052,34 @@
       <c r="A10" s="4">
         <v>45014</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="F10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1">
         <v>44</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>45014</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1059,34 +1088,34 @@
       <c r="A11" s="4">
         <v>45014</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="1">
         <v>12</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>45014</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1095,71 +1124,71 @@
       <c r="A12" s="4">
         <v>45014</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="1">
         <v>77</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>45036</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>45015</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="F13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="1">
         <v>54</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="7">
         <v>45029</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1168,34 +1197,34 @@
       <c r="A14" s="4">
         <v>45015</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1">
         <v>33</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="7">
         <v>45016</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1204,182 +1233,182 @@
       <c r="A15" s="4">
         <v>45015</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="F15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1">
         <v>48</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>45036</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>45016</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="1">
         <v>72</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45036</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>45016</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="D17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <v>53</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>45036</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>45016</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>37</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>45036</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>45019</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="1">
         <v>40</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="7">
         <v>45034</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1388,182 +1417,182 @@
       <c r="A20" s="4">
         <v>45019</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="D20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="1">
         <v>33</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>45036</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>45019</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="1">
         <v>79</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J21" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>45036</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>45021</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="1">
         <v>98</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>45036</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>45021</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="1">
         <v>67</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23" s="2">
-        <v>67</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>45036</v>
+      </c>
+      <c r="K23" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>45029</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="1">
         <v>52</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="7">
         <v>45029</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1572,405 +1601,554 @@
       <c r="A25" s="4">
         <v>45030</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="F25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="1">
         <v>72</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J25" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
+        <v>45036</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>45030</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="2">
-        <v>61</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="1">
+        <v>61</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J26" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>45030</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="E27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="1">
         <v>67</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J27" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K27" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45030</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="F28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="1">
         <v>70</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J28" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>45030</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="E29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" s="1">
         <v>59</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J29" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>45033</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="E30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="1">
         <v>72</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J30" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>45033</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="1">
         <v>64</v>
       </c>
-      <c r="H31" s="2">
-        <v>64</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J31" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K31" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>45033</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="F32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H32" s="1">
         <v>75</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J32" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>45033</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="F33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="1">
         <v>62</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J33" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K33" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K33" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>45034</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="D34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="1">
         <v>95</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J34" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45035</v>
-      </c>
-      <c r="K34" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>45036</v>
+      </c>
+      <c r="K34" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>45035</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="1">
+        <v>69</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45036</v>
+      </c>
+      <c r="K35" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>45035</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="H36" s="1">
+        <v>73</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45036</v>
+      </c>
+      <c r="K36" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>45035</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="1">
+        <v>47</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J37" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45036</v>
+      </c>
+      <c r="K37" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>45035</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="1">
+        <v>70</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45036</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>45036</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="4">
-        <v>45035</v>
-      </c>
-      <c r="K35" s="5">
-        <f t="shared" si="0"/>
+      <c r="E39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H39" s="1">
+        <v>53</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45036</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1989,11 +2167,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="REJECTED">
+      <formula>NOT(ISERROR(SEARCH("REJECTED",I3)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="PENDING">
       <formula>NOT(ISERROR(SEARCH("PENDING",I3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="REJECTED">
-      <formula>NOT(ISERROR(SEARCH("REJECTED",I3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC3C4F9-3FB3-4DC2-AA3B-13FB51F8FAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87F2B8-2B87-49A6-89B5-055573AA1589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="102">
   <si>
     <t>applied_on</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t>bcg (brassring)</t>
+  </si>
+  <si>
+    <t>Slie</t>
+  </si>
+  <si>
+    <t>slie (email)</t>
   </si>
 </sst>
 </file>
@@ -717,10 +723,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -824,11 +830,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -863,7 +869,7 @@
         <v>45030</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K39" si="0">DATEDIF(A4,J4,"d")</f>
+        <f t="shared" ref="K4:K40" si="0">DATEDIF(A4,J4,"d")</f>
         <v>18</v>
       </c>
     </row>
@@ -969,11 +975,11 @@
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1150,11 +1156,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1259,11 +1265,11 @@
       </c>
       <c r="J15" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1296,11 +1302,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1333,11 +1339,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1370,11 +1376,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1443,11 +1449,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1480,11 +1486,11 @@
       </c>
       <c r="J21" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1517,11 +1523,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1554,11 +1560,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1627,11 +1633,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1664,11 +1670,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1701,11 +1707,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1738,11 +1744,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1775,11 +1781,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1812,11 +1818,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1849,11 +1855,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1886,11 +1892,11 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1923,11 +1929,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1960,11 +1966,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1997,11 +2003,11 @@
       </c>
       <c r="J35" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2034,11 +2040,11 @@
       </c>
       <c r="J36" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2071,11 +2077,11 @@
       </c>
       <c r="J37" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K37" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
@@ -2108,11 +2114,11 @@
       </c>
       <c r="J38" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2145,9 +2151,46 @@
       </c>
       <c r="J39" s="4">
         <f ca="1">TODAY()</f>
-        <v>45036</v>
+        <v>45042</v>
       </c>
       <c r="K39" s="6">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>45042</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H40" s="1">
+        <v>73</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45042</v>
+      </c>
+      <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E87F2B8-2B87-49A6-89B5-055573AA1589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B1809E-1DB5-4B72-BAE6-E237C7AF4558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
   <si>
     <t>applied_on</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>slie (email)</t>
+  </si>
+  <si>
+    <t>REPLIED</t>
   </si>
 </sst>
 </file>
@@ -726,7 +729,7 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -830,11 +833,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -975,11 +978,11 @@
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1156,11 +1159,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1265,11 +1268,11 @@
       </c>
       <c r="J15" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1302,11 +1305,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1339,11 +1342,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1376,11 +1379,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1449,11 +1452,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1486,11 +1489,11 @@
       </c>
       <c r="J21" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1523,11 +1526,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1560,11 +1563,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1633,11 +1636,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1670,11 +1673,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1707,11 +1710,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1744,11 +1747,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1781,11 +1784,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1818,11 +1821,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1855,11 +1858,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1892,11 +1895,11 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1929,11 +1932,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1966,11 +1969,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45042</v>
+        <v>45043</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2002,12 +2005,12 @@
         <v>45</v>
       </c>
       <c r="J35" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <f t="shared" ref="J35:J40" ca="1" si="2">TODAY()</f>
+        <v>45043</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2039,12 +2042,12 @@
         <v>45</v>
       </c>
       <c r="J36" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45043</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2073,14 +2076,13 @@
         <v>47</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" s="4">
-        <f ca="1">TODAY()</f>
+        <v>55</v>
+      </c>
+      <c r="J37" s="7">
         <v>45042</v>
       </c>
-      <c r="K37" s="6">
-        <f t="shared" ca="1" si="0"/>
+      <c r="K37" s="8">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -2113,12 +2115,12 @@
         <v>45</v>
       </c>
       <c r="J38" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45043</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2150,12 +2152,12 @@
         <v>45</v>
       </c>
       <c r="J39" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45043</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2184,15 +2186,15 @@
         <v>73</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="J40" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45042</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>45043</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B1809E-1DB5-4B72-BAE6-E237C7AF4558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8325C400-D911-4393-B2A9-C6FDA4D408D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="107">
   <si>
     <t>applied_on</t>
   </si>
@@ -173,9 +173,6 @@
     <t>qualification_match_estimate</t>
   </si>
   <si>
-    <t>current_status</t>
-  </si>
-  <si>
     <t>PENDING</t>
   </si>
   <si>
@@ -341,13 +338,28 @@
     <t>bcg (brassring)</t>
   </si>
   <si>
-    <t>Slie</t>
-  </si>
-  <si>
     <t>slie (email)</t>
   </si>
   <si>
-    <t>REPLIED</t>
+    <t>Unknown (Slie)</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>FORWARDED</t>
+  </si>
+  <si>
+    <t>last_status_update</t>
+  </si>
+  <si>
+    <t>FICO</t>
+  </si>
+  <si>
+    <t>Support Engineer</t>
+  </si>
+  <si>
+    <t>workday</t>
   </si>
 </sst>
 </file>
@@ -726,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -754,16 +766,16 @@
         <v>42</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -782,10 +794,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>10</v>
@@ -794,13 +806,13 @@
         <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -814,30 +826,30 @@
         <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1">
         <v>65</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -851,22 +863,22 @@
         <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1">
         <v>64</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="7">
         <v>45030</v>
@@ -884,25 +896,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1">
         <v>59</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J5" s="7">
         <v>45027</v>
@@ -920,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1">
         <v>29</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J6" s="7">
         <v>45035</v>
@@ -956,33 +968,33 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1">
         <v>32</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -996,22 +1008,22 @@
         <v>34</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1">
         <v>50</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="7">
         <v>45015</v>
@@ -1032,22 +1044,22 @@
         <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1">
         <v>39</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="7">
         <v>45022</v>
@@ -1068,22 +1080,22 @@
         <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1">
         <v>44</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J10" s="7">
         <v>45014</v>
@@ -1104,22 +1116,22 @@
         <v>37</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1">
         <v>12</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J11" s="7">
         <v>45014</v>
@@ -1140,30 +1152,30 @@
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1">
         <v>77</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,22 +1189,22 @@
         <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
         <v>54</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J13" s="7">
         <v>45029</v>
@@ -1213,22 +1225,22 @@
         <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1">
         <v>33</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J14" s="7">
         <v>45016</v>
@@ -1249,30 +1261,30 @@
         <v>34</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H15" s="1">
         <v>48</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K15" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1286,30 +1298,30 @@
         <v>34</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1">
         <v>72</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1323,30 +1335,30 @@
         <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1">
         <v>53</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1360,30 +1372,30 @@
         <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1">
         <v>37</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1397,22 +1409,22 @@
         <v>34</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="1">
         <v>40</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="7">
         <v>45034</v>
@@ -1430,33 +1442,33 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="1">
         <v>33</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1470,30 +1482,30 @@
         <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1">
         <v>79</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J21" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1504,33 +1516,33 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H22" s="1">
         <v>98</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,33 +1553,33 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1">
         <v>67</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1578,25 +1590,25 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H24" s="1">
         <v>52</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" s="7">
         <v>45029</v>
@@ -1614,33 +1626,33 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="1">
         <v>72</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1654,30 +1666,30 @@
         <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H26" s="1">
         <v>61</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1688,33 +1700,33 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1">
         <v>67</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1728,30 +1740,30 @@
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="1">
         <v>70</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1759,36 +1771,36 @@
         <v>45030</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H29" s="1">
         <v>59</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1802,30 +1814,30 @@
         <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H30" s="1">
         <v>72</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1839,30 +1851,30 @@
         <v>34</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H31" s="1">
         <v>64</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1873,33 +1885,33 @@
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H32" s="1">
         <v>75</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1913,30 +1925,30 @@
         <v>34</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H33" s="1">
         <v>62</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,33 +1959,33 @@
         <v>31</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H34" s="1">
         <v>95</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1990,27 +2002,27 @@
         <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H35" s="1">
         <v>69</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" ref="J35:J40" ca="1" si="2">TODAY()</f>
-        <v>45043</v>
+        <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
+        <v>45044</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2018,7 +2030,7 @@
         <v>45035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>34</v>
@@ -2027,27 +2039,27 @@
         <v>41</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H36" s="1">
         <v>73</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2055,28 +2067,28 @@
         <v>45035</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H37" s="1">
         <v>47</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J37" s="7">
         <v>45042</v>
@@ -2091,36 +2103,36 @@
         <v>45035</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H38" s="1">
         <v>70</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2128,36 +2140,36 @@
         <v>45036</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="H39" s="1">
         <v>53</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2174,13 +2186,13 @@
         <v>41</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H40" s="1">
         <v>73</v>
@@ -2190,11 +2202,122 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45043</v>
+        <v>45044</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>45042</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H41" s="1">
+        <v>73</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>45044</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" ref="K41:K43" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>45044</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="1">
+        <v>80</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45044</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>45044</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" s="1">
+        <v>63</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45044</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8325C400-D911-4393-B2A9-C6FDA4D408D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418ACAEA-294C-45F4-AE5C-101F035D6432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -740,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1276,14 +1276,13 @@
         <v>48</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45044</v>
-      </c>
-      <c r="K15" s="6">
-        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="J15" s="7">
+        <v>45044</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418ACAEA-294C-45F4-AE5C-101F035D6432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C0D06-BFDD-466A-A571-0EBFA8C10577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -741,7 +741,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,11 +845,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -990,11 +990,11 @@
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1171,11 +1171,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1316,11 +1316,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1353,11 +1353,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1390,11 +1390,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1463,11 +1463,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1496,15 +1496,14 @@
         <v>79</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J21" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45044</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="J21" s="7">
+        <v>45049</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1537,11 +1536,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1574,11 +1573,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1647,11 +1646,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1684,11 +1683,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1721,11 +1720,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1758,11 +1757,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1795,11 +1794,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1832,11 +1831,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1869,11 +1868,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1906,11 +1905,11 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1943,11 +1942,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1980,11 +1979,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2017,11 +2016,11 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2054,11 +2053,11 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2127,11 +2126,11 @@
       </c>
       <c r="J38" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2164,11 +2163,11 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2201,11 +2200,11 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2238,11 +2237,11 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" ref="K41:K43" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2271,15 +2270,14 @@
         <v>80</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45044</v>
-      </c>
-      <c r="K42" s="6">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="J42" s="7">
+        <v>45049</v>
+      </c>
+      <c r="K42" s="8">
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
@@ -2312,11 +2310,11 @@
       </c>
       <c r="J43" s="4">
         <f ca="1">TODAY()</f>
-        <v>45044</v>
+        <v>45049</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705C0D06-BFDD-466A-A571-0EBFA8C10577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EFD91-A381-4093-920B-5F7416FBB2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Applications" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$K$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Applications!$A$2:$K$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="109">
   <si>
     <t>applied_on</t>
   </si>
@@ -360,6 +360,12 @@
   </si>
   <si>
     <t>workday</t>
+  </si>
+  <si>
+    <t>Nitro</t>
+  </si>
+  <si>
+    <t>networking</t>
   </si>
 </sst>
 </file>
@@ -738,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,11 +851,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -990,11 +996,11 @@
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1171,11 +1177,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1316,11 +1322,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1353,11 +1359,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1390,11 +1396,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1463,11 +1469,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1536,11 +1542,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1573,11 +1579,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1646,11 +1652,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1683,11 +1689,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1720,11 +1726,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1757,11 +1763,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1794,11 +1800,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1831,11 +1837,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1868,11 +1874,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1905,11 +1911,11 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1942,11 +1948,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1979,11 +1985,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2016,11 +2022,11 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2053,11 +2059,11 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2122,15 +2128,14 @@
         <v>70</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J38" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>45049</v>
-      </c>
-      <c r="K38" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>54</v>
+      </c>
+      <c r="J38" s="7">
+        <v>45057</v>
+      </c>
+      <c r="K38" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
@@ -2163,11 +2168,11 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2200,11 +2205,11 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2237,11 +2242,11 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K41" s="6">
-        <f t="shared" ref="K41:K43" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
-        <v>7</v>
+        <f t="shared" ref="K41:K44" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2310,11 +2315,48 @@
       </c>
       <c r="J43" s="4">
         <f ca="1">TODAY()</f>
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>45048</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="1">
+        <v>80</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" s="4">
+        <f ca="1">TODAY()</f>
+        <v>45059</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EFD91-A381-4093-920B-5F7416FBB2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63157E9-AAA6-4C52-8C3B-AD6ECB54A327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,11 +851,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -992,15 +992,14 @@
         <v>32</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="4">
-        <f ca="1">TODAY()</f>
-        <v>45059</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>54</v>
+      </c>
+      <c r="J7" s="7">
+        <v>45062</v>
+      </c>
+      <c r="K7" s="8">
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,11 +1176,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,11 +1321,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1359,11 +1358,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1396,11 +1395,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1469,11 +1468,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1542,11 +1541,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,11 +1578,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1652,11 +1651,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,11 +1688,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,11 +1725,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1763,11 +1762,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1800,11 +1799,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1837,11 +1836,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1874,11 +1873,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1911,11 +1910,11 @@
       </c>
       <c r="J32" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1948,11 +1947,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1985,11 +1984,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,11 +2021,11 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2059,11 +2058,11 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2168,11 +2167,11 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2205,11 +2204,11 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2242,11 +2241,11 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" ref="K41:K44" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2315,11 +2314,11 @@
       </c>
       <c r="J43" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2352,11 +2351,11 @@
       </c>
       <c r="J44" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45062</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EFD91-A381-4093-920B-5F7416FBB2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C619F-2695-4618-BAE7-8B271828516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K32" sqref="J32:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,11 +851,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -996,11 +996,11 @@
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,11 +1177,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1359,11 +1359,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1396,11 +1396,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1542,11 +1542,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,11 +1579,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,11 +1689,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1837,11 +1837,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1907,15 +1907,14 @@
         <v>75</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="J32" s="7">
+        <v>45072</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1948,11 +1947,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1985,11 +1984,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2022,11 +2021,11 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2059,11 +2058,11 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2168,11 +2167,11 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2205,11 +2204,11 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2242,11 +2241,11 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" ref="K41:K44" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2315,11 +2314,11 @@
       </c>
       <c r="J43" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2352,11 +2351,11 @@
       </c>
       <c r="J44" s="4">
         <f ca="1">TODAY()</f>
-        <v>45059</v>
+        <v>45072</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63157E9-AAA6-4C52-8C3B-AD6ECB54A327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8F458-6414-4E89-810D-93A9EF5A9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,11 +851,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1321,11 +1321,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1358,11 +1358,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,11 +1395,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,11 +1541,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1578,11 +1578,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1651,11 +1651,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1762,11 +1762,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,11 +1799,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1836,11 +1836,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1873,11 +1873,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1906,15 +1906,14 @@
         <v>75</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J32" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
-      </c>
-      <c r="K32" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="J32" s="7">
+        <v>45072</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,11 +1946,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,11 +1983,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2021,11 +2020,11 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2058,11 +2057,11 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2167,11 +2166,11 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2204,11 +2203,11 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2241,11 +2240,11 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" ref="K41:K44" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2314,11 +2313,11 @@
       </c>
       <c r="J43" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2351,11 +2350,11 @@
       </c>
       <c r="J44" s="4">
         <f ca="1">TODAY()</f>
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C619F-2695-4618-BAE7-8B271828516E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E4E873-A824-48F5-BD35-F4D8412FC368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K32" sqref="J32:K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,11 +851,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -996,11 +996,11 @@
       </c>
       <c r="J7" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,11 +1177,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1359,11 +1359,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1396,11 +1396,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1469,11 +1469,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1542,11 +1542,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1579,11 +1579,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1652,11 +1652,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1689,11 +1689,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1800,11 +1800,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1837,11 +1837,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1874,11 +1874,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1947,11 +1947,11 @@
       </c>
       <c r="J33" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1984,11 +1984,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2021,11 +2021,11 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2054,15 +2054,14 @@
         <v>73</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
-      </c>
-      <c r="K36" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="J36" s="7">
+        <v>45075</v>
+      </c>
+      <c r="K36" s="8">
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,15 +2162,14 @@
         <v>53</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J39" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
-      </c>
-      <c r="K39" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>54</v>
+      </c>
+      <c r="J39" s="7">
+        <v>45075</v>
+      </c>
+      <c r="K39" s="8">
+        <f t="shared" si="0"/>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2204,11 +2202,11 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2241,11 +2239,11 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" ref="K41:K44" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2314,11 +2312,11 @@
       </c>
       <c r="J43" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2351,11 +2349,11 @@
       </c>
       <c r="J44" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45075</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/docs/job_search.xlsx
+++ b/docs/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\portfolio\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF8F458-6414-4E89-810D-93A9EF5A9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBB0273-011F-4FEF-94AB-30458C23C6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -851,11 +851,11 @@
       </c>
       <c r="J3" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K3" s="6">
         <f ca="1">DATEDIF(A3,J3,"D")</f>
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1176,11 +1176,11 @@
       </c>
       <c r="J12" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1321,11 +1321,11 @@
       </c>
       <c r="J16" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -1358,11 +1358,11 @@
       </c>
       <c r="J17" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1395,11 +1395,11 @@
       </c>
       <c r="J18" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="J20" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1541,11 +1541,11 @@
       </c>
       <c r="J22" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1578,11 +1578,11 @@
       </c>
       <c r="J23" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K23" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -1651,11 +1651,11 @@
       </c>
       <c r="J25" s="4">
         <f t="shared" ref="J25:J34" ca="1" si="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K25" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="J26" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="J27" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1762,11 +1762,11 @@
       </c>
       <c r="J28" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1799,11 +1799,11 @@
       </c>
       <c r="J29" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1836,11 +1836,11 @@
       </c>
       <c r="J30" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K30" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1873,11 +1873,11 @@
       </c>
       <c r="J31" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -1942,15 +1942,14 @@
         <v>62</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
-      </c>
-      <c r="K33" s="6">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="J33" s="7">
+        <v>45090</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -1983,11 +1982,11 @@
       </c>
       <c r="J34" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2020,11 +2019,11 @@
       </c>
       <c r="J35" s="4">
         <f t="shared" ref="J35:J41" ca="1" si="2">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2057,11 +2056,11 @@
       </c>
       <c r="J36" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2166,11 +2165,11 @@
       </c>
       <c r="J39" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
@@ -2203,11 +2202,11 @@
       </c>
       <c r="J40" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K40" s="6">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2240,11 +2239,11 @@
       </c>
       <c r="J41" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" ref="K41:K44" ca="1" si="3">DATEDIF(A41,J41,"d")</f>
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
@@ -2313,11 +2312,11 @@
       </c>
       <c r="J43" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K43" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
@@ -2350,11 +2349,11 @@
       </c>
       <c r="J44" s="4">
         <f ca="1">TODAY()</f>
-        <v>45072</v>
+        <v>45090</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
